--- a/prisma/staticfile/user_location.xlsx
+++ b/prisma/staticfile/user_location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work (Stream IT)\OSP\TLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A0477F-135F-4438-9996-ABD8EE3014BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA63917-5807-43F1-A026-38B997733589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26790" yWindow="3300" windowWidth="20415" windowHeight="13440" xr2:uid="{1801F8F6-CEF0-48D6-99BA-D22EDF455927}"/>
+    <workbookView xWindow="18720" yWindow="4725" windowWidth="20415" windowHeight="13440" xr2:uid="{1801F8F6-CEF0-48D6-99BA-D22EDF455927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -54,16 +54,10 @@
     <t>HM</t>
   </si>
   <si>
-    <t>HCC</t>
-  </si>
-  <si>
     <t>AY Lab</t>
   </si>
   <si>
     <t>HM Lab</t>
-  </si>
-  <si>
-    <t>HCC Lab</t>
   </si>
   <si>
     <t>QAC_AY</t>
@@ -445,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD66A24-84C3-4E97-8EE7-F83CFE2998F9}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -483,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -500,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -511,16 +505,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -528,16 +522,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -545,7 +539,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -562,35 +556,18 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
       <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>

--- a/prisma/staticfile/user_location.xlsx
+++ b/prisma/staticfile/user_location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work (Stream IT)\OSP\TLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA63917-5807-43F1-A026-38B997733589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A0477F-135F-4438-9996-ABD8EE3014BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="4725" windowWidth="20415" windowHeight="13440" xr2:uid="{1801F8F6-CEF0-48D6-99BA-D22EDF455927}"/>
+    <workbookView xWindow="26790" yWindow="3300" windowWidth="20415" windowHeight="13440" xr2:uid="{1801F8F6-CEF0-48D6-99BA-D22EDF455927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -54,10 +54,16 @@
     <t>HM</t>
   </si>
   <si>
+    <t>HCC</t>
+  </si>
+  <si>
     <t>AY Lab</t>
   </si>
   <si>
     <t>HM Lab</t>
+  </si>
+  <si>
+    <t>HCC Lab</t>
   </si>
   <si>
     <t>QAC_AY</t>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD66A24-84C3-4E97-8EE7-F83CFE2998F9}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -477,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -494,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -505,16 +511,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -522,16 +528,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -539,7 +545,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -556,18 +562,35 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>
